--- a/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding/Apertium/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding/Verbs_Paradigms/Public/paradigms/paradigms_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30721773-5E65-1640-B174-F92F9869E372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15240" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1160" windowWidth="28160" windowHeight="15240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3122,9 +3131,6 @@
     <t>&lt;X&gt;et͡saw, &lt;X&gt;aw</t>
   </si>
   <si>
-    <t>indicative past imperfective 1pl</t>
-  </si>
-  <si>
     <t>gə &lt;X&gt;eink</t>
   </si>
   <si>
@@ -3170,9 +3176,6 @@
     <t>gə &lt;Xbasic&gt;neink</t>
   </si>
   <si>
-    <t>indicative past imperfective 1sg</t>
-  </si>
-  <si>
     <t>gə &lt;X&gt;ei</t>
   </si>
   <si>
@@ -3218,9 +3221,6 @@
     <t>gə &lt;Xbasic&gt;nei</t>
   </si>
   <si>
-    <t>indicative past imperfective 2pl</t>
-  </si>
-  <si>
     <t>gə &lt;X&gt;eik</t>
   </si>
   <si>
@@ -3266,9 +3266,6 @@
     <t>gə &lt;Xbasic&gt;neik</t>
   </si>
   <si>
-    <t>indicative past imperfective 2sg</t>
-  </si>
-  <si>
     <t>gə &lt;X&gt;eir</t>
   </si>
   <si>
@@ -3314,9 +3311,6 @@
     <t>gə &lt;Xbasic&gt;neir</t>
   </si>
   <si>
-    <t>indicative past imperfective 3pl</t>
-  </si>
-  <si>
     <t>gə &lt;X&gt;ein</t>
   </si>
   <si>
@@ -3362,9 +3356,6 @@
     <t>gə &lt;Xbasic&gt;nein</t>
   </si>
   <si>
-    <t>indicative past imperfective 3sg</t>
-  </si>
-  <si>
     <t>gə &lt;X&gt;er</t>
   </si>
   <si>
@@ -3893,24 +3884,6 @@
     <t>t͡ʃ&lt;X&gt;et͡saw, t͡ʃ&lt;X&gt;aw</t>
   </si>
   <si>
-    <t>negative indicative past imperfective 1pl</t>
-  </si>
-  <si>
-    <t>negative indicative past imperfective 1sg</t>
-  </si>
-  <si>
-    <t>negative indicative past imperfective 2pl</t>
-  </si>
-  <si>
-    <t>negative indicative past imperfective 2sg</t>
-  </si>
-  <si>
-    <t>negative indicative past imperfective 3pl</t>
-  </si>
-  <si>
-    <t>negative indicative past imperfective 3sg</t>
-  </si>
-  <si>
     <t>negative indicative present 1pl</t>
   </si>
   <si>
@@ -3932,9 +3905,6 @@
     <t>negative infinitival</t>
   </si>
   <si>
-    <t>negative perfective participle</t>
-  </si>
-  <si>
     <t>t͡ʃ&lt;X&gt;ad͡z, t͡ʃ&lt;X&gt;ut͡sad͡z</t>
   </si>
   <si>
@@ -3950,54 +3920,36 @@
     <t>t͡ʃ&lt;X&gt;noɣ, t͡ʃ&lt;X&gt;oɣ</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 1pl</t>
-  </si>
-  <si>
     <t>t͡ʃ&lt;X&gt;eink, t͡ʃ&lt;X&gt;vink</t>
   </si>
   <si>
     <t>t͡ʃ&lt;X&gt;neink, t͡ʃ&lt;X&gt;nvink</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 1sg</t>
-  </si>
-  <si>
     <t>t͡ʃ&lt;X&gt;ei, t͡ʃ&lt;X&gt;vi</t>
   </si>
   <si>
     <t>t͡ʃ&lt;X&gt;nei, t͡ʃ&lt;X&gt;nvi</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 2pl</t>
-  </si>
-  <si>
     <t>t͡ʃ&lt;X&gt;eik, t͡ʃ&lt;X&gt;vik</t>
   </si>
   <si>
     <t>t͡ʃ&lt;X&gt;neik, t͡ʃ&lt;X&gt;nvik</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 2sg</t>
-  </si>
-  <si>
     <t>t͡ʃ&lt;X&gt;eir, t͡ʃ&lt;X&gt;vir</t>
   </si>
   <si>
     <t>t͡ʃ&lt;X&gt;neir, t͡ʃ&lt;X&gt;nvir</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 3pl</t>
-  </si>
-  <si>
     <t>t͡ʃ&lt;X&gt;ein, t͡ʃ&lt;X&gt;vin</t>
   </si>
   <si>
     <t>t͡ʃ&lt;X&gt;nein, t͡ʃ&lt;X&gt;nvin</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 3sg</t>
-  </si>
-  <si>
     <t>t͡ʃ&lt;X&gt;er, t͡ʃ&lt;X&gt;ur</t>
   </si>
   <si>
@@ -4073,45 +4025,30 @@
     <t>&lt;X&gt;noɣ, &lt;X&gt;oɣ</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 1pl</t>
-  </si>
-  <si>
     <t>&lt;X&gt;eink, &lt;X&gt;vink</t>
   </si>
   <si>
     <t>&lt;X&gt;neink, &lt;X&gt;nvink</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 1sg</t>
-  </si>
-  <si>
     <t>&lt;X&gt;ei, &lt;X&gt;vi</t>
   </si>
   <si>
     <t>&lt;X&gt;nei, &lt;X&gt;nvi</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 2pl</t>
-  </si>
-  <si>
     <t>&lt;X&gt;eik, &lt;X&gt;vik</t>
   </si>
   <si>
     <t>&lt;X&gt;neik, &lt;X&gt;nvik</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 3pl</t>
-  </si>
-  <si>
     <t>&lt;X&gt;ein, &lt;X&gt;vin</t>
   </si>
   <si>
     <t>&lt;X&gt;nein, &lt;X&gt;nvin</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 3sg</t>
-  </si>
-  <si>
     <t>&lt;X&gt;eir, &lt;X&gt;vir</t>
   </si>
   <si>
@@ -4161,13 +4098,85 @@
   </si>
   <si>
     <t>passive infinitival</t>
+  </si>
+  <si>
+    <t>negative perfect participle</t>
+  </si>
+  <si>
+    <t>indicative past imperfect 1pl</t>
+  </si>
+  <si>
+    <t>indicative past imperfect 1sg</t>
+  </si>
+  <si>
+    <t>indicative past imperfect 2pl</t>
+  </si>
+  <si>
+    <t>indicative past imperfect 2sg</t>
+  </si>
+  <si>
+    <t>indicative past imperfect 3pl</t>
+  </si>
+  <si>
+    <t>indicative past imperfect 3sg</t>
+  </si>
+  <si>
+    <t>negative indicative past imperfect 1pl</t>
+  </si>
+  <si>
+    <t>negative indicative past imperfect 1sg</t>
+  </si>
+  <si>
+    <t>negative indicative past imperfect 2pl</t>
+  </si>
+  <si>
+    <t>negative indicative past imperfect 2sg</t>
+  </si>
+  <si>
+    <t>negative indicative past imperfect 3pl</t>
+  </si>
+  <si>
+    <t>negative indicative past imperfect 3sg</t>
+  </si>
+  <si>
+    <t>negative subjunctive past imperfect 1pl</t>
+  </si>
+  <si>
+    <t>negative subjunctive past imperfect 1sg</t>
+  </si>
+  <si>
+    <t>negative subjunctive past imperfect 2pl</t>
+  </si>
+  <si>
+    <t>negative subjunctive past imperfect 2sg</t>
+  </si>
+  <si>
+    <t>negative subjunctive past imperfect 3pl</t>
+  </si>
+  <si>
+    <t>negative subjunctive past imperfect 3sg</t>
+  </si>
+  <si>
+    <t>subjunctive past imperfect 1pl</t>
+  </si>
+  <si>
+    <t>subjunctive past imperfect 1sg</t>
+  </si>
+  <si>
+    <t>subjunctive past imperfect 2pl</t>
+  </si>
+  <si>
+    <t>subjunctive past imperfect 3pl</t>
+  </si>
+  <si>
+    <t>subjunctive past imperfect 3sg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4207,6 +4216,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4474,14 +4486,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4672,7 +4686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63">
       <c r="A2" t="s">
         <v>854</v>
       </c>
@@ -4863,7 +4877,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63">
       <c r="A3" t="s">
         <v>913</v>
       </c>
@@ -5054,7 +5068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63">
       <c r="A4" t="s">
         <v>914</v>
       </c>
@@ -5245,7 +5259,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63">
       <c r="A6" t="s">
         <v>972</v>
       </c>
@@ -5412,7 +5426,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63">
       <c r="A7" t="s">
         <v>974</v>
       </c>
@@ -5588,7 +5602,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63">
       <c r="A8" t="s">
         <v>975</v>
       </c>
@@ -5761,7 +5775,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63">
       <c r="A9" t="s">
         <v>979</v>
       </c>
@@ -5934,7 +5948,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63">
       <c r="A10" t="s">
         <v>991</v>
       </c>
@@ -6107,7 +6121,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63">
       <c r="A11" t="s">
         <v>998</v>
       </c>
@@ -6280,7 +6294,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63">
       <c r="A12" t="s">
         <v>1005</v>
       </c>
@@ -6453,7 +6467,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63">
       <c r="A13" t="s">
         <v>1012</v>
       </c>
@@ -6626,7 +6640,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63">
       <c r="A14" t="s">
         <v>1019</v>
       </c>
@@ -6799,7 +6813,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63">
       <c r="A15" t="s">
         <v>1026</v>
       </c>
@@ -6972,57 +6986,57 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63">
       <c r="A16" t="s">
-        <v>1031</v>
+        <v>1355</v>
       </c>
       <c r="B16" t="s">
         <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D16" t="s">
         <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F16" t="s">
         <v>201</v>
       </c>
       <c r="G16" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H16" t="s">
         <v>203</v>
       </c>
       <c r="I16" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J16" t="s">
         <v>1034</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>1035</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1036</v>
       </c>
       <c r="L16" t="s">
         <v>207</v>
       </c>
       <c r="M16" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="N16" t="s">
         <v>209</v>
       </c>
       <c r="O16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="P16" t="s">
         <v>211</v>
       </c>
       <c r="Q16" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="R16" t="s">
         <v>213</v>
@@ -7031,13 +7045,13 @@
         <v>214</v>
       </c>
       <c r="U16" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="V16" t="s">
         <v>211</v>
       </c>
       <c r="W16" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="X16" t="s">
         <v>211</v>
@@ -7046,10 +7060,10 @@
         <v>214</v>
       </c>
       <c r="Z16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AA16" t="s">
         <v>1039</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>1040</v>
       </c>
       <c r="AB16" t="s">
         <v>216</v>
@@ -7058,10 +7072,10 @@
         <v>217</v>
       </c>
       <c r="AD16" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AE16" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AF16" t="s">
         <v>215</v>
@@ -7085,43 +7099,43 @@
         <v>217</v>
       </c>
       <c r="AN16" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AO16" t="s">
         <v>1042</v>
       </c>
-      <c r="AO16" t="s">
-        <v>1043</v>
-      </c>
       <c r="AP16" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AQ16" t="s">
         <v>199</v>
       </c>
       <c r="AR16" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AS16" t="s">
         <v>217</v>
       </c>
       <c r="AT16" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AU16" t="s">
         <v>211</v>
       </c>
       <c r="AV16" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AW16" t="s">
         <v>1044</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>1045</v>
       </c>
       <c r="AX16" t="s">
         <v>217</v>
       </c>
       <c r="AY16" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AZ16" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="BA16" t="s">
         <v>199</v>
@@ -7133,81 +7147,81 @@
         <v>199</v>
       </c>
       <c r="BD16" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="BE16" t="s">
         <v>217</v>
       </c>
       <c r="BF16" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="BG16" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="BH16" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="BI16" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="BJ16" t="s">
         <v>216</v>
       </c>
       <c r="BK16" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:63">
       <c r="A17" t="s">
-        <v>1047</v>
+        <v>1356</v>
       </c>
       <c r="B17" t="s">
         <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D17" t="s">
         <v>224</v>
       </c>
       <c r="E17" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F17" t="s">
         <v>226</v>
       </c>
       <c r="G17" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="H17" t="s">
         <v>228</v>
       </c>
       <c r="I17" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K17" t="s">
         <v>1050</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1051</v>
-      </c>
-      <c r="K17" t="s">
-        <v>1052</v>
       </c>
       <c r="L17" t="s">
         <v>232</v>
       </c>
       <c r="M17" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="N17" t="s">
         <v>234</v>
       </c>
       <c r="O17" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="P17" t="s">
         <v>236</v>
       </c>
       <c r="Q17" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="R17" t="s">
         <v>238</v>
@@ -7216,13 +7230,13 @@
         <v>239</v>
       </c>
       <c r="U17" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="V17" t="s">
         <v>236</v>
       </c>
       <c r="W17" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="X17" t="s">
         <v>236</v>
@@ -7231,10 +7245,10 @@
         <v>239</v>
       </c>
       <c r="Z17" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AA17" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AB17" t="s">
         <v>241</v>
@@ -7243,10 +7257,10 @@
         <v>242</v>
       </c>
       <c r="AD17" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AE17" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AF17" t="s">
         <v>240</v>
@@ -7270,43 +7284,43 @@
         <v>242</v>
       </c>
       <c r="AN17" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AO17" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AP17" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AQ17" t="s">
         <v>224</v>
       </c>
       <c r="AR17" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AS17" t="s">
         <v>242</v>
       </c>
       <c r="AT17" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AU17" t="s">
         <v>236</v>
       </c>
       <c r="AV17" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AW17" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="AX17" t="s">
         <v>242</v>
       </c>
       <c r="AY17" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="AZ17" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="BA17" t="s">
         <v>224</v>
@@ -7318,81 +7332,81 @@
         <v>224</v>
       </c>
       <c r="BD17" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="BE17" t="s">
         <v>242</v>
       </c>
       <c r="BF17" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="BG17" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="BH17" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="BI17" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="BJ17" t="s">
         <v>241</v>
       </c>
       <c r="BK17" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:63">
       <c r="A18" t="s">
-        <v>1063</v>
+        <v>1357</v>
       </c>
       <c r="B18" t="s">
         <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D18" t="s">
         <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="F18" t="s">
         <v>251</v>
       </c>
       <c r="G18" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="H18" t="s">
         <v>253</v>
       </c>
       <c r="I18" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="J18" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="K18" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="L18" t="s">
         <v>257</v>
       </c>
       <c r="M18" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="N18" t="s">
         <v>259</v>
       </c>
       <c r="O18" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="P18" t="s">
         <v>261</v>
       </c>
       <c r="Q18" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="R18" t="s">
         <v>263</v>
@@ -7401,13 +7415,13 @@
         <v>264</v>
       </c>
       <c r="U18" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="V18" t="s">
         <v>261</v>
       </c>
       <c r="W18" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="X18" t="s">
         <v>261</v>
@@ -7416,10 +7430,10 @@
         <v>264</v>
       </c>
       <c r="Z18" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="AA18" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="AB18" t="s">
         <v>266</v>
@@ -7428,10 +7442,10 @@
         <v>267</v>
       </c>
       <c r="AD18" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AE18" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="AF18" t="s">
         <v>265</v>
@@ -7455,43 +7469,43 @@
         <v>267</v>
       </c>
       <c r="AN18" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="AO18" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="AP18" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="AQ18" t="s">
         <v>249</v>
       </c>
       <c r="AR18" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="AS18" t="s">
         <v>267</v>
       </c>
       <c r="AT18" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="AU18" t="s">
         <v>261</v>
       </c>
       <c r="AV18" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="AW18" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="AX18" t="s">
         <v>267</v>
       </c>
       <c r="AY18" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="AZ18" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="BA18" t="s">
         <v>249</v>
@@ -7503,81 +7517,81 @@
         <v>249</v>
       </c>
       <c r="BD18" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="BE18" t="s">
         <v>267</v>
       </c>
       <c r="BF18" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="BG18" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="BH18" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="BI18" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="BJ18" t="s">
         <v>266</v>
       </c>
       <c r="BK18" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:63">
       <c r="A19" t="s">
-        <v>1079</v>
+        <v>1358</v>
       </c>
       <c r="B19" t="s">
         <v>274</v>
       </c>
       <c r="C19" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D19" t="s">
         <v>274</v>
       </c>
       <c r="E19" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="F19" t="s">
         <v>276</v>
       </c>
       <c r="G19" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H19" t="s">
         <v>278</v>
       </c>
       <c r="I19" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="J19" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="K19" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="L19" t="s">
         <v>281</v>
       </c>
       <c r="M19" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="N19" t="s">
         <v>283</v>
       </c>
       <c r="O19" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="P19" t="s">
         <v>285</v>
       </c>
       <c r="Q19" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R19" t="s">
         <v>287</v>
@@ -7586,13 +7600,13 @@
         <v>288</v>
       </c>
       <c r="U19" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="V19" t="s">
         <v>285</v>
       </c>
       <c r="W19" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="X19" t="s">
         <v>285</v>
@@ -7601,10 +7615,10 @@
         <v>288</v>
       </c>
       <c r="Z19" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="AA19" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="AB19" t="s">
         <v>290</v>
@@ -7613,10 +7627,10 @@
         <v>291</v>
       </c>
       <c r="AD19" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="AE19" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="AF19" t="s">
         <v>289</v>
@@ -7640,43 +7654,43 @@
         <v>291</v>
       </c>
       <c r="AN19" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="AO19" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="AP19" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="AQ19" t="s">
         <v>274</v>
       </c>
       <c r="AR19" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="AS19" t="s">
         <v>291</v>
       </c>
       <c r="AT19" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="AU19" t="s">
         <v>285</v>
       </c>
       <c r="AV19" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="AW19" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="AX19" t="s">
         <v>291</v>
       </c>
       <c r="AY19" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="AZ19" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="BA19" t="s">
         <v>274</v>
@@ -7688,81 +7702,81 @@
         <v>274</v>
       </c>
       <c r="BD19" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="BE19" t="s">
         <v>291</v>
       </c>
       <c r="BF19" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="BG19" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="BH19" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="BI19" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="BJ19" t="s">
         <v>290</v>
       </c>
       <c r="BK19" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:63">
       <c r="A20" t="s">
-        <v>1095</v>
+        <v>1359</v>
       </c>
       <c r="B20" t="s">
         <v>298</v>
       </c>
       <c r="C20" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="D20" t="s">
         <v>298</v>
       </c>
       <c r="E20" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="F20" t="s">
         <v>300</v>
       </c>
       <c r="G20" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="H20" t="s">
         <v>302</v>
       </c>
       <c r="I20" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="J20" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="K20" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="L20" t="s">
         <v>306</v>
       </c>
       <c r="M20" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="N20" t="s">
         <v>308</v>
       </c>
       <c r="O20" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="P20" t="s">
         <v>310</v>
       </c>
       <c r="Q20" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="R20" t="s">
         <v>312</v>
@@ -7771,13 +7785,13 @@
         <v>313</v>
       </c>
       <c r="U20" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="V20" t="s">
         <v>310</v>
       </c>
       <c r="W20" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="X20" t="s">
         <v>310</v>
@@ -7786,10 +7800,10 @@
         <v>313</v>
       </c>
       <c r="Z20" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="AA20" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="AB20" t="s">
         <v>315</v>
@@ -7798,10 +7812,10 @@
         <v>316</v>
       </c>
       <c r="AD20" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="AE20" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="AF20" t="s">
         <v>314</v>
@@ -7825,43 +7839,43 @@
         <v>316</v>
       </c>
       <c r="AN20" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="AO20" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="AP20" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="AQ20" t="s">
         <v>298</v>
       </c>
       <c r="AR20" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="AS20" t="s">
         <v>316</v>
       </c>
       <c r="AT20" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="AU20" t="s">
         <v>310</v>
       </c>
       <c r="AV20" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="AW20" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="AX20" t="s">
         <v>316</v>
       </c>
       <c r="AY20" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="AZ20" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="BA20" t="s">
         <v>298</v>
@@ -7873,81 +7887,81 @@
         <v>298</v>
       </c>
       <c r="BD20" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="BE20" t="s">
         <v>316</v>
       </c>
       <c r="BF20" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="BG20" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="BH20" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="BI20" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="BJ20" t="s">
         <v>315</v>
       </c>
       <c r="BK20" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:63">
       <c r="A21" t="s">
-        <v>1111</v>
+        <v>1360</v>
       </c>
       <c r="B21" t="s">
         <v>323</v>
       </c>
       <c r="C21" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="D21" t="s">
         <v>323</v>
       </c>
       <c r="E21" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="F21" t="s">
         <v>324</v>
       </c>
       <c r="G21" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="H21" t="s">
         <v>325</v>
       </c>
       <c r="I21" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="J21" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="K21" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="L21" t="s">
         <v>327</v>
       </c>
       <c r="M21" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="N21" t="s">
         <v>329</v>
       </c>
       <c r="O21" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="P21" t="s">
         <v>331</v>
       </c>
       <c r="Q21" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="R21" t="s">
         <v>333</v>
@@ -7956,13 +7970,13 @@
         <v>334</v>
       </c>
       <c r="U21" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="V21" t="s">
         <v>331</v>
       </c>
       <c r="W21" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="X21" t="s">
         <v>331</v>
@@ -7971,10 +7985,10 @@
         <v>334</v>
       </c>
       <c r="Z21" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="AA21" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="AB21" t="s">
         <v>336</v>
@@ -7983,10 +7997,10 @@
         <v>337</v>
       </c>
       <c r="AD21" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="AE21" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="AF21" t="s">
         <v>335</v>
@@ -8010,43 +8024,43 @@
         <v>337</v>
       </c>
       <c r="AN21" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="AO21" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="AP21" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="AQ21" t="s">
         <v>323</v>
       </c>
       <c r="AR21" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="AS21" t="s">
         <v>337</v>
       </c>
       <c r="AT21" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="AU21" t="s">
         <v>331</v>
       </c>
       <c r="AV21" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="AW21" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="AX21" t="s">
         <v>337</v>
       </c>
       <c r="AY21" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="AZ21" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="BA21" t="s">
         <v>323</v>
@@ -8058,99 +8072,99 @@
         <v>323</v>
       </c>
       <c r="BD21" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="BE21" t="s">
         <v>337</v>
       </c>
       <c r="BF21" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="BG21" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="BH21" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="BI21" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="BJ21" t="s">
         <v>336</v>
       </c>
       <c r="BK21" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:63">
       <c r="A22" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="B22" t="s">
         <v>344</v>
       </c>
       <c r="C22" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="D22" t="s">
         <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="F22" t="s">
         <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="H22" t="s">
         <v>346</v>
       </c>
       <c r="I22" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="J22" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="K22" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="L22" t="s">
         <v>347</v>
       </c>
       <c r="M22" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="N22" t="s">
         <v>349</v>
       </c>
       <c r="O22" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="P22" t="s">
         <v>351</v>
       </c>
       <c r="Q22" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="R22" t="s">
         <v>353</v>
       </c>
       <c r="S22" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="T22" t="s">
         <v>355</v>
       </c>
       <c r="U22" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="V22" t="s">
         <v>357</v>
       </c>
       <c r="W22" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="X22" t="s">
         <v>359</v>
@@ -8159,10 +8173,10 @@
         <v>355</v>
       </c>
       <c r="Z22" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="AA22" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="AB22" t="s">
         <v>361</v>
@@ -8171,10 +8185,10 @@
         <v>362</v>
       </c>
       <c r="AD22" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="AE22" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="AF22" t="s">
         <v>356</v>
@@ -8198,43 +8212,43 @@
         <v>362</v>
       </c>
       <c r="AN22" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="AO22" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="AP22" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="AQ22" t="s">
         <v>344</v>
       </c>
       <c r="AR22" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="AS22" t="s">
         <v>362</v>
       </c>
       <c r="AT22" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="AU22" t="s">
         <v>359</v>
       </c>
       <c r="AV22" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="AW22" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="AX22" t="s">
         <v>362</v>
       </c>
       <c r="AY22" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="AZ22" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="BA22" t="s">
         <v>219</v>
@@ -8246,99 +8260,99 @@
         <v>344</v>
       </c>
       <c r="BD22" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="BE22" t="s">
         <v>362</v>
       </c>
       <c r="BF22" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="BG22" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="BH22" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="BI22" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="BJ22" t="s">
         <v>361</v>
       </c>
       <c r="BK22" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:63">
       <c r="A23" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="B23" t="s">
         <v>368</v>
       </c>
       <c r="C23" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="D23" t="s">
         <v>244</v>
       </c>
       <c r="E23" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="F23" t="s">
         <v>371</v>
       </c>
       <c r="G23" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="H23" t="s">
         <v>373</v>
       </c>
       <c r="I23" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="J23" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="K23" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="L23" t="s">
         <v>375</v>
       </c>
       <c r="M23" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="N23" t="s">
         <v>377</v>
       </c>
       <c r="O23" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="P23" t="s">
         <v>379</v>
       </c>
       <c r="Q23" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="R23" t="s">
         <v>381</v>
       </c>
       <c r="S23" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="T23" t="s">
         <v>383</v>
       </c>
       <c r="U23" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="V23" t="s">
         <v>385</v>
       </c>
       <c r="W23" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="X23" t="s">
         <v>387</v>
@@ -8347,10 +8361,10 @@
         <v>383</v>
       </c>
       <c r="Z23" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="AA23" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="AB23" t="s">
         <v>389</v>
@@ -8359,10 +8373,10 @@
         <v>390</v>
       </c>
       <c r="AD23" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="AE23" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="AF23" t="s">
         <v>384</v>
@@ -8386,43 +8400,43 @@
         <v>390</v>
       </c>
       <c r="AN23" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="AO23" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="AP23" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="AQ23" t="s">
         <v>368</v>
       </c>
       <c r="AR23" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="AS23" t="s">
         <v>390</v>
       </c>
       <c r="AT23" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="AU23" t="s">
         <v>387</v>
       </c>
       <c r="AV23" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="AW23" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="AX23" t="s">
         <v>390</v>
       </c>
       <c r="AY23" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="AZ23" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="BA23" t="s">
         <v>244</v>
@@ -8434,99 +8448,99 @@
         <v>368</v>
       </c>
       <c r="BD23" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="BE23" t="s">
         <v>390</v>
       </c>
       <c r="BF23" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="BG23" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="BH23" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="BI23" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="BJ23" t="s">
         <v>389</v>
       </c>
       <c r="BK23" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:63">
       <c r="A24" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="B24" t="s">
         <v>396</v>
       </c>
       <c r="C24" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="D24" t="s">
         <v>269</v>
       </c>
       <c r="E24" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="F24" t="s">
         <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="H24" t="s">
         <v>398</v>
       </c>
       <c r="I24" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="J24" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="K24" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="L24" t="s">
         <v>400</v>
       </c>
       <c r="M24" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="N24" t="s">
         <v>402</v>
       </c>
       <c r="O24" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="P24" t="s">
         <v>404</v>
       </c>
       <c r="Q24" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="R24" t="s">
         <v>406</v>
       </c>
       <c r="S24" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="T24" t="s">
         <v>408</v>
       </c>
       <c r="U24" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="V24" t="s">
         <v>410</v>
       </c>
       <c r="W24" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="X24" t="s">
         <v>412</v>
@@ -8535,10 +8549,10 @@
         <v>408</v>
       </c>
       <c r="Z24" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="AA24" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="AB24" t="s">
         <v>414</v>
@@ -8547,10 +8561,10 @@
         <v>415</v>
       </c>
       <c r="AD24" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="AE24" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="AF24" t="s">
         <v>409</v>
@@ -8574,43 +8588,43 @@
         <v>415</v>
       </c>
       <c r="AN24" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="AO24" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="AP24" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="AQ24" t="s">
         <v>396</v>
       </c>
       <c r="AR24" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="AS24" t="s">
         <v>415</v>
       </c>
       <c r="AT24" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="AU24" t="s">
         <v>412</v>
       </c>
       <c r="AV24" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="AW24" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="AX24" t="s">
         <v>415</v>
       </c>
       <c r="AY24" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="AZ24" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="BA24" t="s">
         <v>269</v>
@@ -8622,99 +8636,99 @@
         <v>396</v>
       </c>
       <c r="BD24" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="BE24" t="s">
         <v>415</v>
       </c>
       <c r="BF24" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="BG24" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="BH24" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="BI24" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="BJ24" t="s">
         <v>414</v>
       </c>
       <c r="BK24" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:63">
       <c r="A25" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B25" t="s">
         <v>421</v>
       </c>
       <c r="C25" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="D25" t="s">
         <v>293</v>
       </c>
       <c r="E25" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="F25" t="s">
         <v>424</v>
       </c>
       <c r="G25" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="H25" t="s">
         <v>426</v>
       </c>
       <c r="I25" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="J25" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="K25" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="L25" t="s">
         <v>428</v>
       </c>
       <c r="M25" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="N25" t="s">
         <v>430</v>
       </c>
       <c r="O25" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="P25" t="s">
         <v>432</v>
       </c>
       <c r="Q25" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="R25" t="s">
         <v>434</v>
       </c>
       <c r="S25" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="T25" t="s">
         <v>436</v>
       </c>
       <c r="U25" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="V25" t="s">
         <v>438</v>
       </c>
       <c r="W25" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="X25" t="s">
         <v>440</v>
@@ -8723,10 +8737,10 @@
         <v>436</v>
       </c>
       <c r="Z25" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="AA25" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="AB25" t="s">
         <v>442</v>
@@ -8735,10 +8749,10 @@
         <v>443</v>
       </c>
       <c r="AD25" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="AE25" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="AF25" t="s">
         <v>437</v>
@@ -8762,43 +8776,43 @@
         <v>443</v>
       </c>
       <c r="AN25" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="AO25" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="AP25" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="AQ25" t="s">
         <v>421</v>
       </c>
       <c r="AR25" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="AS25" t="s">
         <v>443</v>
       </c>
       <c r="AT25" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="AU25" t="s">
         <v>440</v>
       </c>
       <c r="AV25" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="AW25" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="AX25" t="s">
         <v>443</v>
       </c>
       <c r="AY25" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="AZ25" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="BA25" t="s">
         <v>293</v>
@@ -8810,99 +8824,99 @@
         <v>421</v>
       </c>
       <c r="BD25" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="BE25" t="s">
         <v>443</v>
       </c>
       <c r="BF25" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="BG25" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="BH25" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="BI25" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="BJ25" t="s">
         <v>442</v>
       </c>
       <c r="BK25" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:63">
       <c r="A26" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B26" t="s">
         <v>449</v>
       </c>
       <c r="C26" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="D26" t="s">
         <v>318</v>
       </c>
       <c r="E26" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="F26" t="s">
         <v>304</v>
       </c>
       <c r="G26" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="H26" t="s">
         <v>451</v>
       </c>
       <c r="I26" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="J26" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="K26" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L26" t="s">
         <v>452</v>
       </c>
       <c r="M26" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="N26" t="s">
         <v>454</v>
       </c>
       <c r="O26" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="P26" t="s">
         <v>456</v>
       </c>
       <c r="Q26" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="R26" t="s">
         <v>458</v>
       </c>
       <c r="S26" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="T26" t="s">
         <v>460</v>
       </c>
       <c r="U26" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="V26" t="s">
         <v>462</v>
       </c>
       <c r="W26" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="X26" t="s">
         <v>464</v>
@@ -8911,10 +8925,10 @@
         <v>460</v>
       </c>
       <c r="Z26" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="AA26" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="AB26" t="s">
         <v>466</v>
@@ -8923,10 +8937,10 @@
         <v>467</v>
       </c>
       <c r="AD26" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="AE26" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="AF26" t="s">
         <v>461</v>
@@ -8950,43 +8964,43 @@
         <v>467</v>
       </c>
       <c r="AN26" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="AO26" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="AP26" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="AQ26" t="s">
         <v>449</v>
       </c>
       <c r="AR26" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="AS26" t="s">
         <v>467</v>
       </c>
       <c r="AT26" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="AU26" t="s">
         <v>464</v>
       </c>
       <c r="AV26" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="AW26" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="AX26" t="s">
         <v>467</v>
       </c>
       <c r="AY26" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="AZ26" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="BA26" t="s">
         <v>318</v>
@@ -8998,99 +9012,99 @@
         <v>449</v>
       </c>
       <c r="BD26" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="BE26" t="s">
         <v>467</v>
       </c>
       <c r="BF26" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="BG26" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="BH26" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="BI26" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="BJ26" t="s">
         <v>466</v>
       </c>
       <c r="BK26" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:63">
       <c r="A27" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="B27" t="s">
         <v>473</v>
       </c>
       <c r="C27" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="D27" t="s">
         <v>339</v>
       </c>
       <c r="E27" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="F27" t="s">
         <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="H27" t="s">
         <v>475</v>
       </c>
       <c r="I27" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="J27" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="K27" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="L27" t="s">
         <v>476</v>
       </c>
       <c r="M27" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="N27" t="s">
         <v>478</v>
       </c>
       <c r="O27" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="P27" t="s">
         <v>480</v>
       </c>
       <c r="Q27" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="R27" t="s">
         <v>482</v>
       </c>
       <c r="S27" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="T27" t="s">
         <v>484</v>
       </c>
       <c r="U27" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="V27" t="s">
         <v>486</v>
       </c>
       <c r="W27" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="X27" t="s">
         <v>488</v>
@@ -9099,10 +9113,10 @@
         <v>484</v>
       </c>
       <c r="Z27" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="AA27" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="AB27" t="s">
         <v>490</v>
@@ -9111,10 +9125,10 @@
         <v>491</v>
       </c>
       <c r="AD27" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="AE27" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="AF27" t="s">
         <v>485</v>
@@ -9138,43 +9152,43 @@
         <v>491</v>
       </c>
       <c r="AN27" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="AO27" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="AP27" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="AQ27" t="s">
         <v>473</v>
       </c>
       <c r="AR27" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="AS27" t="s">
         <v>491</v>
       </c>
       <c r="AT27" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="AU27" t="s">
         <v>488</v>
       </c>
       <c r="AV27" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="AW27" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="AX27" t="s">
         <v>491</v>
       </c>
       <c r="AY27" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="AZ27" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="BA27" t="s">
         <v>339</v>
@@ -9186,31 +9200,31 @@
         <v>473</v>
       </c>
       <c r="BD27" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="BE27" t="s">
         <v>491</v>
       </c>
       <c r="BF27" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="BG27" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="BH27" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="BI27" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="BJ27" t="s">
         <v>490</v>
       </c>
       <c r="BK27" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:63">
       <c r="A28" t="s">
         <v>496</v>
       </c>
@@ -9386,9 +9400,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:63">
       <c r="A29" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="B29" t="s">
         <v>513</v>
@@ -9562,9 +9576,9 @@
         <v>521</v>
       </c>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:63">
       <c r="A30" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="B30" t="s">
         <v>524</v>
@@ -9594,7 +9608,7 @@
         <v>528</v>
       </c>
       <c r="K30" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="L30" t="s">
         <v>530</v>
@@ -9702,7 +9716,7 @@
         <v>531</v>
       </c>
       <c r="BA30" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="BB30" t="s">
         <v>536</v>
@@ -9711,22 +9725,22 @@
         <v>529</v>
       </c>
       <c r="BD30" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="BE30" t="s">
         <v>535</v>
       </c>
       <c r="BF30" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="BG30" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="BH30" t="s">
         <v>527</v>
       </c>
       <c r="BI30" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="BJ30" t="s">
         <v>535</v>
@@ -9735,9 +9749,9 @@
         <v>536</v>
       </c>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:63">
       <c r="A31" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B31" t="s">
         <v>538</v>
@@ -9767,7 +9781,7 @@
         <v>542</v>
       </c>
       <c r="K31" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="L31" t="s">
         <v>544</v>
@@ -9875,7 +9889,7 @@
         <v>545</v>
       </c>
       <c r="BA31" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="BB31" t="s">
         <v>550</v>
@@ -9884,22 +9898,22 @@
         <v>543</v>
       </c>
       <c r="BD31" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="BE31" t="s">
         <v>549</v>
       </c>
       <c r="BF31" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="BG31" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="BH31" t="s">
         <v>541</v>
       </c>
       <c r="BI31" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="BJ31" t="s">
         <v>549</v>
@@ -9908,9 +9922,9 @@
         <v>550</v>
       </c>
     </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:63">
       <c r="A32" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B32" t="s">
         <v>552</v>
@@ -9940,7 +9954,7 @@
         <v>556</v>
       </c>
       <c r="K32" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="L32" t="s">
         <v>558</v>
@@ -10048,7 +10062,7 @@
         <v>559</v>
       </c>
       <c r="BA32" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="BB32" t="s">
         <v>564</v>
@@ -10057,22 +10071,22 @@
         <v>557</v>
       </c>
       <c r="BD32" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="BE32" t="s">
         <v>563</v>
       </c>
       <c r="BF32" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="BG32" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="BH32" t="s">
         <v>555</v>
       </c>
       <c r="BI32" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="BJ32" t="s">
         <v>563</v>
@@ -10081,9 +10095,9 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:63">
       <c r="A33" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="B33" t="s">
         <v>566</v>
@@ -10113,7 +10127,7 @@
         <v>570</v>
       </c>
       <c r="K33" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="L33" t="s">
         <v>572</v>
@@ -10221,7 +10235,7 @@
         <v>573</v>
       </c>
       <c r="BA33" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="BB33" t="s">
         <v>578</v>
@@ -10230,22 +10244,22 @@
         <v>571</v>
       </c>
       <c r="BD33" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="BE33" t="s">
         <v>577</v>
       </c>
       <c r="BF33" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="BG33" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="BH33" t="s">
         <v>569</v>
       </c>
       <c r="BI33" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="BJ33" t="s">
         <v>577</v>
@@ -10254,9 +10268,9 @@
         <v>578</v>
       </c>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:63">
       <c r="A34" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="B34" t="s">
         <v>580</v>
@@ -10286,7 +10300,7 @@
         <v>584</v>
       </c>
       <c r="K34" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="L34" t="s">
         <v>586</v>
@@ -10394,7 +10408,7 @@
         <v>587</v>
       </c>
       <c r="BA34" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="BB34" t="s">
         <v>592</v>
@@ -10403,22 +10417,22 @@
         <v>585</v>
       </c>
       <c r="BD34" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="BE34" t="s">
         <v>591</v>
       </c>
       <c r="BF34" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="BG34" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="BH34" t="s">
         <v>583</v>
       </c>
       <c r="BI34" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="BJ34" t="s">
         <v>591</v>
@@ -10427,9 +10441,9 @@
         <v>592</v>
       </c>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:63">
       <c r="A35" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="B35" t="s">
         <v>594</v>
@@ -10459,7 +10473,7 @@
         <v>598</v>
       </c>
       <c r="K35" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="L35" t="s">
         <v>600</v>
@@ -10567,7 +10581,7 @@
         <v>601</v>
       </c>
       <c r="BA35" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="BB35" t="s">
         <v>605</v>
@@ -10585,13 +10599,13 @@
         <v>601</v>
       </c>
       <c r="BG35" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="BH35" t="s">
         <v>597</v>
       </c>
       <c r="BI35" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="BJ35" t="s">
         <v>605</v>
@@ -10600,9 +10614,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:63">
       <c r="A36" t="s">
-        <v>1288</v>
+        <v>1361</v>
       </c>
       <c r="B36" t="s">
         <v>609</v>
@@ -10773,9 +10787,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:63">
       <c r="A37" t="s">
-        <v>1289</v>
+        <v>1362</v>
       </c>
       <c r="B37" t="s">
         <v>609</v>
@@ -10946,9 +10960,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:63">
       <c r="A38" t="s">
-        <v>1290</v>
+        <v>1363</v>
       </c>
       <c r="B38" t="s">
         <v>609</v>
@@ -11119,9 +11133,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:63">
       <c r="A39" t="s">
-        <v>1291</v>
+        <v>1364</v>
       </c>
       <c r="B39" t="s">
         <v>609</v>
@@ -11292,9 +11306,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:63">
       <c r="A40" t="s">
-        <v>1292</v>
+        <v>1365</v>
       </c>
       <c r="B40" t="s">
         <v>609</v>
@@ -11465,9 +11479,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:63">
       <c r="A41" t="s">
-        <v>1293</v>
+        <v>1366</v>
       </c>
       <c r="B41" t="s">
         <v>609</v>
@@ -11638,9 +11652,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:63">
       <c r="A42" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="B42" t="s">
         <v>609</v>
@@ -11817,9 +11831,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:63">
       <c r="A43" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="B43" t="s">
         <v>609</v>
@@ -11996,9 +12010,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:63">
       <c r="A44" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="B44" t="s">
         <v>609</v>
@@ -12175,9 +12189,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:63">
       <c r="A45" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="B45" t="s">
         <v>609</v>
@@ -12354,9 +12368,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:63">
       <c r="A46" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="B46" t="s">
         <v>609</v>
@@ -12533,9 +12547,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:63">
       <c r="A47" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="B47" t="s">
         <v>609</v>
@@ -12712,9 +12726,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:63">
       <c r="A48" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="B48" t="s">
         <v>637</v>
@@ -12888,9 +12902,9 @@
         <v>652</v>
       </c>
     </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:63">
       <c r="A49" t="s">
-        <v>1301</v>
+        <v>1354</v>
       </c>
       <c r="B49" t="s">
         <v>653</v>
@@ -12917,10 +12931,10 @@
         <v>655</v>
       </c>
       <c r="J49" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
       <c r="K49" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
       <c r="L49" t="s">
         <v>656</v>
@@ -13061,9 +13075,9 @@
         <v>658</v>
       </c>
     </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:63">
       <c r="A50" t="s">
-        <v>1303</v>
+        <v>1290</v>
       </c>
       <c r="B50" t="s">
         <v>661</v>
@@ -13237,9 +13251,9 @@
         <v>669</v>
       </c>
     </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:63">
       <c r="A51" t="s">
-        <v>1304</v>
+        <v>1291</v>
       </c>
       <c r="B51" t="s">
         <v>672</v>
@@ -13266,10 +13280,10 @@
         <v>674</v>
       </c>
       <c r="J51" t="s">
-        <v>1305</v>
+        <v>1292</v>
       </c>
       <c r="K51" t="s">
-        <v>1305</v>
+        <v>1292</v>
       </c>
       <c r="L51" t="s">
         <v>675</v>
@@ -13299,7 +13313,7 @@
         <v>673</v>
       </c>
       <c r="W51" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="X51" t="s">
         <v>677</v>
@@ -13404,9 +13418,9 @@
         <v>679</v>
       </c>
     </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:63">
       <c r="A52" t="s">
-        <v>1307</v>
+        <v>1367</v>
       </c>
       <c r="B52" t="s">
         <v>610</v>
@@ -13433,10 +13447,10 @@
         <v>611</v>
       </c>
       <c r="J52" t="s">
-        <v>1308</v>
+        <v>1294</v>
       </c>
       <c r="K52" t="s">
-        <v>1308</v>
+        <v>1294</v>
       </c>
       <c r="L52" t="s">
         <v>686</v>
@@ -13463,7 +13477,7 @@
         <v>689</v>
       </c>
       <c r="V52" t="s">
-        <v>1309</v>
+        <v>1295</v>
       </c>
       <c r="W52" t="s">
         <v>688</v>
@@ -13583,9 +13597,9 @@
         <v>690</v>
       </c>
     </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:63">
       <c r="A53" t="s">
-        <v>1310</v>
+        <v>1368</v>
       </c>
       <c r="B53" t="s">
         <v>613</v>
@@ -13612,10 +13626,10 @@
         <v>614</v>
       </c>
       <c r="J53" t="s">
-        <v>1311</v>
+        <v>1296</v>
       </c>
       <c r="K53" t="s">
-        <v>1311</v>
+        <v>1296</v>
       </c>
       <c r="L53" t="s">
         <v>696</v>
@@ -13642,7 +13656,7 @@
         <v>699</v>
       </c>
       <c r="V53" t="s">
-        <v>1312</v>
+        <v>1297</v>
       </c>
       <c r="W53" t="s">
         <v>698</v>
@@ -13762,9 +13776,9 @@
         <v>700</v>
       </c>
     </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:63">
       <c r="A54" t="s">
-        <v>1313</v>
+        <v>1369</v>
       </c>
       <c r="B54" t="s">
         <v>616</v>
@@ -13791,10 +13805,10 @@
         <v>617</v>
       </c>
       <c r="J54" t="s">
-        <v>1314</v>
+        <v>1298</v>
       </c>
       <c r="K54" t="s">
-        <v>1314</v>
+        <v>1298</v>
       </c>
       <c r="L54" t="s">
         <v>706</v>
@@ -13821,7 +13835,7 @@
         <v>709</v>
       </c>
       <c r="V54" t="s">
-        <v>1315</v>
+        <v>1299</v>
       </c>
       <c r="W54" t="s">
         <v>708</v>
@@ -13941,9 +13955,9 @@
         <v>710</v>
       </c>
     </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:63">
       <c r="A55" t="s">
-        <v>1316</v>
+        <v>1370</v>
       </c>
       <c r="B55" t="s">
         <v>619</v>
@@ -13970,10 +13984,10 @@
         <v>620</v>
       </c>
       <c r="J55" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="K55" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="L55" t="s">
         <v>715</v>
@@ -14000,7 +14014,7 @@
         <v>718</v>
       </c>
       <c r="V55" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="W55" t="s">
         <v>717</v>
@@ -14120,9 +14134,9 @@
         <v>719</v>
       </c>
     </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:63">
       <c r="A56" t="s">
-        <v>1319</v>
+        <v>1371</v>
       </c>
       <c r="B56" t="s">
         <v>622</v>
@@ -14149,10 +14163,10 @@
         <v>623</v>
       </c>
       <c r="J56" t="s">
-        <v>1320</v>
+        <v>1302</v>
       </c>
       <c r="K56" t="s">
-        <v>1320</v>
+        <v>1302</v>
       </c>
       <c r="L56" t="s">
         <v>725</v>
@@ -14179,7 +14193,7 @@
         <v>728</v>
       </c>
       <c r="V56" t="s">
-        <v>1321</v>
+        <v>1303</v>
       </c>
       <c r="W56" t="s">
         <v>727</v>
@@ -14299,9 +14313,9 @@
         <v>729</v>
       </c>
     </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:63">
       <c r="A57" t="s">
-        <v>1322</v>
+        <v>1372</v>
       </c>
       <c r="B57" t="s">
         <v>625</v>
@@ -14328,10 +14342,10 @@
         <v>573</v>
       </c>
       <c r="J57" t="s">
-        <v>1323</v>
+        <v>1304</v>
       </c>
       <c r="K57" t="s">
-        <v>1323</v>
+        <v>1304</v>
       </c>
       <c r="L57" t="s">
         <v>734</v>
@@ -14358,7 +14372,7 @@
         <v>737</v>
       </c>
       <c r="V57" t="s">
-        <v>1324</v>
+        <v>1305</v>
       </c>
       <c r="W57" t="s">
         <v>736</v>
@@ -14478,9 +14492,9 @@
         <v>738</v>
       </c>
     </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:63">
       <c r="A58" t="s">
-        <v>1325</v>
+        <v>1306</v>
       </c>
       <c r="B58" t="s">
         <v>742</v>
@@ -14507,10 +14521,10 @@
         <v>531</v>
       </c>
       <c r="J58" t="s">
-        <v>1326</v>
+        <v>1307</v>
       </c>
       <c r="K58" t="s">
-        <v>1326</v>
+        <v>1307</v>
       </c>
       <c r="L58" t="s">
         <v>743</v>
@@ -14657,9 +14671,9 @@
         <v>753</v>
       </c>
     </row>
-    <row r="59" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:63">
       <c r="A59" t="s">
-        <v>1327</v>
+        <v>1308</v>
       </c>
       <c r="B59" t="s">
         <v>754</v>
@@ -14686,10 +14700,10 @@
         <v>629</v>
       </c>
       <c r="J59" t="s">
-        <v>1328</v>
+        <v>1309</v>
       </c>
       <c r="K59" t="s">
-        <v>1328</v>
+        <v>1309</v>
       </c>
       <c r="L59" t="s">
         <v>756</v>
@@ -14836,9 +14850,9 @@
         <v>766</v>
       </c>
     </row>
-    <row r="60" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:63">
       <c r="A60" t="s">
-        <v>1329</v>
+        <v>1310</v>
       </c>
       <c r="B60" t="s">
         <v>767</v>
@@ -14865,10 +14879,10 @@
         <v>559</v>
       </c>
       <c r="J60" t="s">
-        <v>1330</v>
+        <v>1311</v>
       </c>
       <c r="K60" t="s">
-        <v>1330</v>
+        <v>1311</v>
       </c>
       <c r="L60" t="s">
         <v>768</v>
@@ -15015,9 +15029,9 @@
         <v>778</v>
       </c>
     </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:63">
       <c r="A61" t="s">
-        <v>1331</v>
+        <v>1312</v>
       </c>
       <c r="B61" t="s">
         <v>779</v>
@@ -15044,10 +15058,10 @@
         <v>633</v>
       </c>
       <c r="J61" t="s">
-        <v>1332</v>
+        <v>1313</v>
       </c>
       <c r="K61" t="s">
-        <v>1332</v>
+        <v>1313</v>
       </c>
       <c r="L61" t="s">
         <v>781</v>
@@ -15194,9 +15208,9 @@
         <v>791</v>
       </c>
     </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:63">
       <c r="A62" t="s">
-        <v>1333</v>
+        <v>1314</v>
       </c>
       <c r="B62" t="s">
         <v>792</v>
@@ -15223,10 +15237,10 @@
         <v>587</v>
       </c>
       <c r="J62" t="s">
-        <v>1334</v>
+        <v>1315</v>
       </c>
       <c r="K62" t="s">
-        <v>1334</v>
+        <v>1315</v>
       </c>
       <c r="L62" t="s">
         <v>793</v>
@@ -15373,9 +15387,9 @@
         <v>803</v>
       </c>
     </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:63">
       <c r="A63" t="s">
-        <v>1335</v>
+        <v>1316</v>
       </c>
       <c r="B63" t="s">
         <v>804</v>
@@ -15402,10 +15416,10 @@
         <v>545</v>
       </c>
       <c r="J63" t="s">
-        <v>1336</v>
+        <v>1317</v>
       </c>
       <c r="K63" t="s">
-        <v>1336</v>
+        <v>1317</v>
       </c>
       <c r="L63" t="s">
         <v>805</v>
@@ -15552,9 +15566,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="64" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:63">
       <c r="A64" t="s">
-        <v>1337</v>
+        <v>1318</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
@@ -15584,7 +15598,7 @@
         <v>69</v>
       </c>
       <c r="K64" t="s">
-        <v>1338</v>
+        <v>1319</v>
       </c>
       <c r="L64" t="s">
         <v>328</v>
@@ -15722,9 +15736,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="65" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:63">
       <c r="A65" t="s">
-        <v>1339</v>
+        <v>1320</v>
       </c>
       <c r="B65" t="s">
         <v>816</v>
@@ -15751,10 +15765,10 @@
         <v>818</v>
       </c>
       <c r="J65" t="s">
-        <v>1340</v>
+        <v>1321</v>
       </c>
       <c r="K65" t="s">
-        <v>1340</v>
+        <v>1321</v>
       </c>
       <c r="L65" t="s">
         <v>819</v>
@@ -15895,9 +15909,9 @@
         <v>821</v>
       </c>
     </row>
-    <row r="66" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:63">
       <c r="A66" t="s">
-        <v>1341</v>
+        <v>1322</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
@@ -15927,7 +15941,7 @@
         <v>69</v>
       </c>
       <c r="K66" t="s">
-        <v>1338</v>
+        <v>1319</v>
       </c>
       <c r="L66" t="s">
         <v>328</v>
@@ -16071,9 +16085,9 @@
         <v>826</v>
       </c>
     </row>
-    <row r="67" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:63">
       <c r="A67" t="s">
-        <v>1342</v>
+        <v>1323</v>
       </c>
       <c r="B67" t="s">
         <v>397</v>
@@ -16226,9 +16240,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:63">
       <c r="A68" t="s">
-        <v>1343</v>
+        <v>1324</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -16381,9 +16395,9 @@
         <v>826</v>
       </c>
     </row>
-    <row r="69" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:63">
       <c r="A69" t="s">
-        <v>1344</v>
+        <v>1325</v>
       </c>
       <c r="B69" t="s">
         <v>827</v>
@@ -16557,9 +16571,9 @@
         <v>835</v>
       </c>
     </row>
-    <row r="70" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:63">
       <c r="A70" t="s">
-        <v>1345</v>
+        <v>1326</v>
       </c>
       <c r="B70" t="s">
         <v>838</v>
@@ -16586,10 +16600,10 @@
         <v>840</v>
       </c>
       <c r="J70" t="s">
-        <v>1346</v>
+        <v>1327</v>
       </c>
       <c r="K70" t="s">
-        <v>1346</v>
+        <v>1327</v>
       </c>
       <c r="L70" t="s">
         <v>841</v>
@@ -16619,7 +16633,7 @@
         <v>839</v>
       </c>
       <c r="W70" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
       <c r="X70" t="s">
         <v>843</v>
@@ -16724,9 +16738,9 @@
         <v>845</v>
       </c>
     </row>
-    <row r="71" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:63">
       <c r="A71" t="s">
-        <v>1348</v>
+        <v>1373</v>
       </c>
       <c r="B71" t="s">
         <v>200</v>
@@ -16753,10 +16767,10 @@
         <v>204</v>
       </c>
       <c r="J71" t="s">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="K71" t="s">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="L71" t="s">
         <v>208</v>
@@ -16783,7 +16797,7 @@
         <v>215</v>
       </c>
       <c r="V71" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="W71" t="s">
         <v>212</v>
@@ -16903,9 +16917,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:63">
       <c r="A72" t="s">
-        <v>1351</v>
+        <v>1374</v>
       </c>
       <c r="B72" t="s">
         <v>225</v>
@@ -16932,10 +16946,10 @@
         <v>229</v>
       </c>
       <c r="J72" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="K72" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="L72" t="s">
         <v>233</v>
@@ -16962,7 +16976,7 @@
         <v>240</v>
       </c>
       <c r="V72" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="W72" t="s">
         <v>237</v>
@@ -17082,9 +17096,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="73" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:63">
       <c r="A73" t="s">
-        <v>1354</v>
+        <v>1375</v>
       </c>
       <c r="B73" t="s">
         <v>250</v>
@@ -17111,10 +17125,10 @@
         <v>254</v>
       </c>
       <c r="J73" t="s">
-        <v>1355</v>
+        <v>1333</v>
       </c>
       <c r="K73" t="s">
-        <v>1355</v>
+        <v>1333</v>
       </c>
       <c r="L73" t="s">
         <v>258</v>
@@ -17141,7 +17155,7 @@
         <v>265</v>
       </c>
       <c r="V73" t="s">
-        <v>1356</v>
+        <v>1334</v>
       </c>
       <c r="W73" t="s">
         <v>262</v>
@@ -17261,9 +17275,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:63">
       <c r="A74" t="s">
-        <v>1357</v>
+        <v>1376</v>
       </c>
       <c r="B74" t="s">
         <v>299</v>
@@ -17290,10 +17304,10 @@
         <v>303</v>
       </c>
       <c r="J74" t="s">
-        <v>1358</v>
+        <v>1335</v>
       </c>
       <c r="K74" t="s">
-        <v>1358</v>
+        <v>1335</v>
       </c>
       <c r="L74" t="s">
         <v>307</v>
@@ -17320,7 +17334,7 @@
         <v>314</v>
       </c>
       <c r="V74" t="s">
-        <v>1359</v>
+        <v>1336</v>
       </c>
       <c r="W74" t="s">
         <v>311</v>
@@ -17440,9 +17454,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:63">
       <c r="A75" t="s">
-        <v>1360</v>
+        <v>1377</v>
       </c>
       <c r="B75" t="s">
         <v>275</v>
@@ -17469,10 +17483,10 @@
         <v>279</v>
       </c>
       <c r="J75" t="s">
-        <v>1361</v>
+        <v>1337</v>
       </c>
       <c r="K75" t="s">
-        <v>1361</v>
+        <v>1337</v>
       </c>
       <c r="L75" t="s">
         <v>282</v>
@@ -17499,7 +17513,7 @@
         <v>289</v>
       </c>
       <c r="V75" t="s">
-        <v>1362</v>
+        <v>1338</v>
       </c>
       <c r="W75" t="s">
         <v>286</v>
@@ -17619,9 +17633,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="76" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:63">
       <c r="A76" t="s">
-        <v>1360</v>
+        <v>1377</v>
       </c>
       <c r="B76" t="s">
         <v>69</v>
@@ -17648,10 +17662,10 @@
         <v>164</v>
       </c>
       <c r="J76" t="s">
-        <v>1338</v>
+        <v>1319</v>
       </c>
       <c r="K76" t="s">
-        <v>1338</v>
+        <v>1319</v>
       </c>
       <c r="L76" t="s">
         <v>328</v>
@@ -17678,7 +17692,7 @@
         <v>335</v>
       </c>
       <c r="V76" t="s">
-        <v>1363</v>
+        <v>1339</v>
       </c>
       <c r="W76" t="s">
         <v>332</v>
@@ -17798,9 +17812,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="77" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:63">
       <c r="A77" t="s">
-        <v>1364</v>
+        <v>1340</v>
       </c>
       <c r="B77" t="s">
         <v>345</v>
@@ -17827,10 +17841,10 @@
         <v>122</v>
       </c>
       <c r="J77" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="K77" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="L77" t="s">
         <v>348</v>
@@ -17977,9 +17991,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="78" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:63">
       <c r="A78" t="s">
-        <v>1366</v>
+        <v>1342</v>
       </c>
       <c r="B78" t="s">
         <v>369</v>
@@ -18006,10 +18020,10 @@
         <v>374</v>
       </c>
       <c r="J78" t="s">
-        <v>1367</v>
+        <v>1343</v>
       </c>
       <c r="K78" t="s">
-        <v>1367</v>
+        <v>1343</v>
       </c>
       <c r="L78" t="s">
         <v>376</v>
@@ -18156,9 +18170,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="79" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:63">
       <c r="A79" t="s">
-        <v>1368</v>
+        <v>1344</v>
       </c>
       <c r="B79" t="s">
         <v>397</v>
@@ -18185,10 +18199,10 @@
         <v>150</v>
       </c>
       <c r="J79" t="s">
-        <v>1369</v>
+        <v>1345</v>
       </c>
       <c r="K79" t="s">
-        <v>1369</v>
+        <v>1345</v>
       </c>
       <c r="L79" t="s">
         <v>401</v>
@@ -18335,9 +18349,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="80" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:63">
       <c r="A80" t="s">
-        <v>1370</v>
+        <v>1346</v>
       </c>
       <c r="B80" t="s">
         <v>422</v>
@@ -18364,10 +18378,10 @@
         <v>427</v>
       </c>
       <c r="J80" t="s">
-        <v>1371</v>
+        <v>1347</v>
       </c>
       <c r="K80" t="s">
-        <v>1371</v>
+        <v>1347</v>
       </c>
       <c r="L80" t="s">
         <v>429</v>
@@ -18514,9 +18528,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="81" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:63">
       <c r="A81" t="s">
-        <v>1372</v>
+        <v>1348</v>
       </c>
       <c r="B81" t="s">
         <v>450</v>
@@ -18543,10 +18557,10 @@
         <v>178</v>
       </c>
       <c r="J81" t="s">
-        <v>1373</v>
+        <v>1349</v>
       </c>
       <c r="K81" t="s">
-        <v>1373</v>
+        <v>1349</v>
       </c>
       <c r="L81" t="s">
         <v>453</v>
@@ -18693,9 +18707,9 @@
         <v>472</v>
       </c>
     </row>
-    <row r="82" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:63">
       <c r="A82" t="s">
-        <v>1374</v>
+        <v>1350</v>
       </c>
       <c r="B82" t="s">
         <v>474</v>
@@ -18722,10 +18736,10 @@
         <v>136</v>
       </c>
       <c r="J82" t="s">
-        <v>1375</v>
+        <v>1351</v>
       </c>
       <c r="K82" t="s">
-        <v>1375</v>
+        <v>1351</v>
       </c>
       <c r="L82" t="s">
         <v>477</v>
@@ -18872,9 +18886,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="83" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:63">
       <c r="A83" t="s">
-        <v>1376</v>
+        <v>1352</v>
       </c>
       <c r="B83" t="s">
         <v>850</v>
@@ -18901,9 +18915,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="84" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:63">
       <c r="A84" t="s">
-        <v>1377</v>
+        <v>1353</v>
       </c>
       <c r="B84" t="s">
         <v>499</v>

--- a/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1160" windowWidth="28160" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1160" windowWidth="28160" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="1459">
   <si>
     <t>Class number</t>
   </si>
@@ -4401,6 +4401,9 @@
   </si>
   <si>
     <t>-m</t>
+  </si>
+  <si>
+    <t>-vil</t>
   </si>
 </sst>
 </file>
@@ -4718,8 +4721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AU2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:BM6"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5432,10 +5435,10 @@
         <v>1442</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1442</v>
+        <v>1458</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1442</v>
+        <v>1458</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>1443</v>

--- a/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1160" windowWidth="28160" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="7180" yWindow="460" windowWidth="28160" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4722,7 +4722,7 @@
   <dimension ref="A1:BM87"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4926,449 +4926,449 @@
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="Z2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AC2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AE2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="AH2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>1457</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>1458</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>1457</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>1458</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>1457</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>1458</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>1457</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>1458</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>1457</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>1458</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>1457</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>1458</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>1457</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>1458</v>
+        <v>58</v>
       </c>
       <c r="P3" t="s">
-        <v>1457</v>
+        <v>59</v>
       </c>
       <c r="Q3" t="s">
-        <v>1458</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
-        <v>1457</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>1458</v>
+        <v>60</v>
       </c>
       <c r="T3" t="s">
-        <v>1457</v>
+        <v>61</v>
       </c>
       <c r="U3" t="s">
-        <v>1458</v>
+        <v>61</v>
       </c>
       <c r="V3" t="s">
-        <v>1457</v>
+        <v>58</v>
       </c>
       <c r="W3" t="s">
-        <v>1458</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>1457</v>
+        <v>59</v>
       </c>
       <c r="Y3" t="s">
-        <v>1458</v>
+        <v>59</v>
       </c>
       <c r="Z3" t="s">
-        <v>1457</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="s">
-        <v>1457</v>
+        <v>60</v>
       </c>
       <c r="AB3" t="s">
-        <v>1458</v>
+        <v>60</v>
       </c>
       <c r="AC3" t="s">
-        <v>1458</v>
+        <v>60</v>
       </c>
       <c r="AD3" t="s">
-        <v>1457</v>
+        <v>62</v>
       </c>
       <c r="AE3" t="s">
-        <v>1457</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="s">
-        <v>1458</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s">
-        <v>1458</v>
+        <v>61</v>
       </c>
       <c r="AH3" t="s">
-        <v>1458</v>
+        <v>61</v>
       </c>
       <c r="AI3" t="s">
-        <v>1457</v>
+        <v>61</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1457</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s">
-        <v>1458</v>
+        <v>61</v>
       </c>
       <c r="AL3" t="s">
-        <v>1458</v>
+        <v>61</v>
       </c>
       <c r="AM3" t="s">
-        <v>1457</v>
+        <v>61</v>
       </c>
       <c r="AN3" t="s">
-        <v>1457</v>
+        <v>62</v>
       </c>
       <c r="AO3" t="s">
-        <v>1458</v>
+        <v>62</v>
       </c>
       <c r="AP3" t="s">
-        <v>1458</v>
+        <v>60</v>
       </c>
       <c r="AQ3" t="s">
-        <v>1458</v>
+        <v>62</v>
       </c>
       <c r="AR3" t="s">
-        <v>1457</v>
+        <v>60</v>
       </c>
       <c r="AS3" t="s">
-        <v>1458</v>
+        <v>60</v>
       </c>
       <c r="AT3" t="s">
-        <v>1457</v>
+        <v>60</v>
       </c>
       <c r="AU3" t="s">
-        <v>1458</v>
+        <v>62</v>
       </c>
       <c r="AV3" t="s">
-        <v>1457</v>
+        <v>60</v>
       </c>
       <c r="AW3" t="s">
-        <v>1458</v>
+        <v>62</v>
       </c>
       <c r="AX3" t="s">
-        <v>1458</v>
+        <v>62</v>
       </c>
       <c r="AY3" t="s">
-        <v>1458</v>
+        <v>60</v>
       </c>
       <c r="AZ3" t="s">
-        <v>1457</v>
+        <v>62</v>
       </c>
       <c r="BA3" t="s">
-        <v>1458</v>
+        <v>62</v>
       </c>
       <c r="BB3" t="s">
-        <v>1458</v>
+        <v>60</v>
       </c>
       <c r="BC3" t="s">
-        <v>1457</v>
+        <v>60</v>
       </c>
       <c r="BD3" t="s">
-        <v>1457</v>
+        <v>62</v>
       </c>
       <c r="BE3" t="s">
-        <v>1457</v>
+        <v>60</v>
       </c>
       <c r="BF3" t="s">
-        <v>1458</v>
+        <v>62</v>
       </c>
       <c r="BG3" t="s">
-        <v>1457</v>
+        <v>62</v>
       </c>
       <c r="BH3" t="s">
-        <v>1458</v>
+        <v>60</v>
       </c>
       <c r="BI3" t="s">
-        <v>1458</v>
+        <v>60</v>
       </c>
       <c r="BJ3" t="s">
-        <v>1458</v>
+        <v>60</v>
       </c>
       <c r="BK3" t="s">
-        <v>1458</v>
+        <v>60</v>
       </c>
       <c r="BL3" t="s">
-        <v>1457</v>
+        <v>62</v>
       </c>
       <c r="BM3" t="s">
-        <v>1458</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1458</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>1457</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>1458</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>1457</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>1458</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1458</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>1457</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>1458</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>1457</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>1458</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1458</v>
       </c>
       <c r="Z4" t="s">
-        <v>69</v>
+        <v>1457</v>
       </c>
       <c r="AA4" t="s">
-        <v>70</v>
+        <v>1457</v>
       </c>
       <c r="AB4" t="s">
-        <v>69</v>
+        <v>1458</v>
       </c>
       <c r="AC4" t="s">
-        <v>70</v>
+        <v>1458</v>
       </c>
       <c r="AD4" t="s">
-        <v>69</v>
+        <v>1457</v>
       </c>
       <c r="AE4" t="s">
-        <v>70</v>
+        <v>1457</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>1458</v>
       </c>
       <c r="AG4" t="s">
-        <v>71</v>
+        <v>1458</v>
       </c>
       <c r="AH4" t="s">
-        <v>72</v>
+        <v>1458</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.2">

--- a/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
@@ -4722,7 +4722,7 @@
   <dimension ref="A1:BM87"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5420,593 +5420,593 @@
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>1441</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1441</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>1443</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>1444</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>1444</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>1446</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>1446</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>1447</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>1447</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>1448</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>1448</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>1447</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>1449</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>1447</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>1449</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>1446</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>1447</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>1450</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>1451</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>1452</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>1453</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>1449</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>1449</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>1439</v>
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" t="s">
+        <v>96</v>
+      </c>
+      <c r="S6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" t="s">
+        <v>99</v>
+      </c>
+      <c r="V6" t="s">
+        <v>100</v>
+      </c>
+      <c r="W6" t="s">
+        <v>101</v>
+      </c>
+      <c r="X6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>133</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>140</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>141</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="Q7" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="R7" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="S7" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="T7" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="U7" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="V7" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="Z7" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="AA7" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="AB7" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="AC7" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="AD7" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="AE7" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="AF7" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="AG7" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="AH7" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="AI7" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="AJ7" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="AK7" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="AL7" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="AM7" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="AN7" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="AO7" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="AP7" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="AQ7" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="AR7" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="AS7" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="AT7" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="AU7" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="AV7" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="AW7" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="AX7" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="AY7" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="AZ7" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="BA7" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="BB7" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="BC7" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="BD7" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="BE7" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="BF7" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="BG7" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="BH7" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="BI7" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="BJ7" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="BK7" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="BL7" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="BM7" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8" t="s">
-        <v>151</v>
-      </c>
-      <c r="I8" t="s">
-        <v>152</v>
-      </c>
-      <c r="J8" t="s">
-        <v>153</v>
-      </c>
-      <c r="K8" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" t="s">
-        <v>155</v>
-      </c>
-      <c r="M8" t="s">
-        <v>156</v>
-      </c>
-      <c r="N8" t="s">
-        <v>157</v>
-      </c>
-      <c r="O8" t="s">
-        <v>158</v>
-      </c>
-      <c r="P8" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>160</v>
-      </c>
-      <c r="R8" t="s">
-        <v>161</v>
-      </c>
-      <c r="S8" t="s">
-        <v>162</v>
-      </c>
-      <c r="T8" t="s">
-        <v>163</v>
-      </c>
-      <c r="U8" t="s">
-        <v>164</v>
-      </c>
-      <c r="V8" t="s">
-        <v>165</v>
-      </c>
-      <c r="W8" t="s">
-        <v>166</v>
-      </c>
-      <c r="X8" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>180</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>191</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>192</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>193</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>196</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>199</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>200</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>201</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>202</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>203</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>204</v>
+        <v>78</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>1439</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">

--- a/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
@@ -4718,8 +4718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BA13" sqref="BA13"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5111,7 +5111,7 @@
         <v>60</v>
       </c>
       <c r="AT3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AU3" t="s">
         <v>62</v>

--- a/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
@@ -4718,8 +4718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AT3" sqref="AT3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17341,7 +17341,7 @@
         <v>1159</v>
       </c>
       <c r="BH70" t="s">
-        <v>626</v>
+        <v>1158</v>
       </c>
       <c r="BI70" t="s">
         <v>311</v>
@@ -17502,7 +17502,7 @@
         <v>1136</v>
       </c>
       <c r="BH71" t="s">
-        <v>206</v>
+        <v>1135</v>
       </c>
       <c r="BI71" t="s">
         <v>332</v>

--- a/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
@@ -4718,8 +4718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AV9" sqref="AV9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5952,7 +5952,7 @@
         <v>1335</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>1333</v>
+        <v>1344</v>
       </c>
       <c r="AW8" s="1" t="s">
         <v>1335</v>

--- a/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans_stemmed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding and data/ArmenianVerbs/paradigms/paradigms_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B4D453-E08A-6C47-B1D4-0E94ECCD5766}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991EB6CC-CEA3-B54B-B377-27330F8186FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="15220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="2780" windowWidth="28160" windowHeight="15220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5257" uniqueCount="1463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5293" uniqueCount="1463">
   <si>
     <t>Class number</t>
   </si>
@@ -4423,7 +4423,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4737,13 +4737,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A66" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A67" sqref="A67"/>
+      <selection pane="topRight" activeCell="AK74" sqref="AK74:AK85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:67">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4946,7 +4948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:67">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -5005,7 +5007,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:67">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -5208,7 +5210,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:67">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -5411,7 +5413,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="5" spans="1:67">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1351</v>
       </c>
@@ -5458,7 +5460,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:67">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -5661,7 +5663,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:67">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -5864,7 +5866,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:67">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -6067,7 +6069,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="9" spans="1:67">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>203</v>
       </c>
@@ -6246,7 +6248,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:67">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>213</v>
       </c>
@@ -6434,7 +6436,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:67">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -6619,7 +6621,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:67">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>241</v>
       </c>
@@ -6804,7 +6806,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:67">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>269</v>
       </c>
@@ -6989,7 +6991,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:67">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -7174,7 +7176,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:67">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>300</v>
       </c>
@@ -7359,7 +7361,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:67">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>321</v>
       </c>
@@ -7544,7 +7546,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:67">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>342</v>
       </c>
@@ -7729,7 +7731,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:67">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>363</v>
       </c>
@@ -7914,7 +7916,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:67">
+    <row r="19" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>383</v>
       </c>
@@ -8018,7 +8020,7 @@
         <v>1381</v>
       </c>
       <c r="AK19" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="AL19" t="s">
         <v>401</v>
@@ -8111,7 +8113,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:67">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>405</v>
       </c>
@@ -8215,7 +8217,7 @@
         <v>1391</v>
       </c>
       <c r="AK20" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="AL20" t="s">
         <v>423</v>
@@ -8308,7 +8310,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="21" spans="1:67">
+    <row r="21" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>427</v>
       </c>
@@ -8412,7 +8414,7 @@
         <v>1401</v>
       </c>
       <c r="AK21" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="AL21" t="s">
         <v>445</v>
@@ -8505,7 +8507,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="22" spans="1:67">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>449</v>
       </c>
@@ -8609,7 +8611,7 @@
         <v>1411</v>
       </c>
       <c r="AK22" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AL22" t="s">
         <v>467</v>
@@ -8702,7 +8704,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="23" spans="1:67">
+    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>471</v>
       </c>
@@ -8806,7 +8808,7 @@
         <v>1421</v>
       </c>
       <c r="AK23" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="AL23" t="s">
         <v>489</v>
@@ -8899,7 +8901,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:67">
+    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>493</v>
       </c>
@@ -9003,7 +9005,7 @@
         <v>515</v>
       </c>
       <c r="AK24" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="AL24" t="s">
         <v>204</v>
@@ -9096,7 +9098,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="25" spans="1:67">
+    <row r="25" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>523</v>
       </c>
@@ -9203,7 +9205,7 @@
         <v>550</v>
       </c>
       <c r="AK25" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="AL25" t="s">
         <v>277</v>
@@ -9296,7 +9298,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="26" spans="1:67">
+    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>559</v>
       </c>
@@ -9403,7 +9405,7 @@
         <v>586</v>
       </c>
       <c r="AK26" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="AL26" t="s">
         <v>587</v>
@@ -9496,7 +9498,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="27" spans="1:67">
+    <row r="27" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>596</v>
       </c>
@@ -9603,7 +9605,7 @@
         <v>623</v>
       </c>
       <c r="AK27" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="AL27" t="s">
         <v>308</v>
@@ -9696,7 +9698,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="28" spans="1:67">
+    <row r="28" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>632</v>
       </c>
@@ -9803,7 +9805,7 @@
         <v>659</v>
       </c>
       <c r="AK28" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="AL28" t="s">
         <v>660</v>
@@ -9896,7 +9898,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="29" spans="1:67">
+    <row r="29" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>670</v>
       </c>
@@ -10003,7 +10005,7 @@
         <v>697</v>
       </c>
       <c r="AK29" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="AL29" t="s">
         <v>350</v>
@@ -10096,7 +10098,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="30" spans="1:67">
+    <row r="30" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>706</v>
       </c>
@@ -10203,7 +10205,7 @@
         <v>1368</v>
       </c>
       <c r="AK30" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="AL30" t="s">
         <v>296</v>
@@ -10296,7 +10298,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="31" spans="1:67">
+    <row r="31" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>732</v>
       </c>
@@ -10484,7 +10486,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="32" spans="1:67">
+    <row r="32" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>750</v>
       </c>
@@ -10672,7 +10674,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="33" spans="1:67">
+    <row r="33" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>763</v>
       </c>
@@ -10857,7 +10859,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="34" spans="1:67">
+    <row r="34" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>784</v>
       </c>
@@ -11042,7 +11044,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="35" spans="1:67">
+    <row r="35" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>794</v>
       </c>
@@ -11227,7 +11229,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="36" spans="1:67">
+    <row r="36" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>815</v>
       </c>
@@ -11412,7 +11414,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="37" spans="1:67">
+    <row r="37" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>836</v>
       </c>
@@ -11597,7 +11599,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="38" spans="1:67">
+    <row r="38" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>857</v>
       </c>
@@ -11782,7 +11784,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="39" spans="1:67">
+    <row r="39" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>877</v>
       </c>
@@ -11876,6 +11878,9 @@
       <c r="AJ39" t="s">
         <v>878</v>
       </c>
+      <c r="AK39" t="s">
+        <v>878</v>
+      </c>
       <c r="AL39" t="s">
         <v>879</v>
       </c>
@@ -11967,7 +11972,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="40" spans="1:67">
+    <row r="40" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>881</v>
       </c>
@@ -12061,6 +12066,9 @@
       <c r="AJ40" t="s">
         <v>878</v>
       </c>
+      <c r="AK40" t="s">
+        <v>878</v>
+      </c>
       <c r="AL40" t="s">
         <v>882</v>
       </c>
@@ -12152,7 +12160,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="41" spans="1:67">
+    <row r="41" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>884</v>
       </c>
@@ -12246,6 +12254,9 @@
       <c r="AJ41" t="s">
         <v>878</v>
       </c>
+      <c r="AK41" t="s">
+        <v>878</v>
+      </c>
       <c r="AL41" t="s">
         <v>885</v>
       </c>
@@ -12337,7 +12348,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="42" spans="1:67">
+    <row r="42" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>887</v>
       </c>
@@ -12431,6 +12442,9 @@
       <c r="AJ42" t="s">
         <v>878</v>
       </c>
+      <c r="AK42" t="s">
+        <v>878</v>
+      </c>
       <c r="AL42" t="s">
         <v>888</v>
       </c>
@@ -12522,7 +12536,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="43" spans="1:67">
+    <row r="43" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>890</v>
       </c>
@@ -12616,6 +12630,9 @@
       <c r="AJ43" t="s">
         <v>878</v>
       </c>
+      <c r="AK43" t="s">
+        <v>878</v>
+      </c>
       <c r="AL43" t="s">
         <v>891</v>
       </c>
@@ -12707,7 +12724,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="44" spans="1:67">
+    <row r="44" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>893</v>
       </c>
@@ -12801,6 +12818,9 @@
       <c r="AJ44" t="s">
         <v>878</v>
       </c>
+      <c r="AK44" t="s">
+        <v>878</v>
+      </c>
       <c r="AL44" t="s">
         <v>894</v>
       </c>
@@ -12892,7 +12912,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="45" spans="1:67">
+    <row r="45" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>896</v>
       </c>
@@ -12992,6 +13012,9 @@
       <c r="AJ45" t="s">
         <v>878</v>
       </c>
+      <c r="AK45" t="s">
+        <v>878</v>
+      </c>
       <c r="AL45" t="s">
         <v>771</v>
       </c>
@@ -13083,7 +13106,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="46" spans="1:67">
+    <row r="46" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>898</v>
       </c>
@@ -13183,6 +13206,9 @@
       <c r="AJ46" t="s">
         <v>878</v>
       </c>
+      <c r="AK46" t="s">
+        <v>878</v>
+      </c>
       <c r="AL46" t="s">
         <v>899</v>
       </c>
@@ -13274,7 +13300,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="47" spans="1:67">
+    <row r="47" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>902</v>
       </c>
@@ -13374,6 +13400,9 @@
       <c r="AJ47" t="s">
         <v>878</v>
       </c>
+      <c r="AK47" t="s">
+        <v>878</v>
+      </c>
       <c r="AL47" t="s">
         <v>802</v>
       </c>
@@ -13465,7 +13494,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="48" spans="1:67">
+    <row r="48" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>904</v>
       </c>
@@ -13565,6 +13594,9 @@
       <c r="AJ48" t="s">
         <v>878</v>
       </c>
+      <c r="AK48" t="s">
+        <v>878</v>
+      </c>
       <c r="AL48" t="s">
         <v>905</v>
       </c>
@@ -13656,7 +13688,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="49" spans="1:67">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>908</v>
       </c>
@@ -13756,6 +13788,9 @@
       <c r="AJ49" t="s">
         <v>878</v>
       </c>
+      <c r="AK49" t="s">
+        <v>878</v>
+      </c>
       <c r="AL49" t="s">
         <v>844</v>
       </c>
@@ -13847,7 +13882,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="50" spans="1:67">
+    <row r="50" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>910</v>
       </c>
@@ -13947,6 +13982,9 @@
       <c r="AJ50" t="s">
         <v>878</v>
       </c>
+      <c r="AK50" t="s">
+        <v>878</v>
+      </c>
       <c r="AL50" t="s">
         <v>790</v>
       </c>
@@ -14038,7 +14076,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="51" spans="1:67">
+    <row r="51" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>912</v>
       </c>
@@ -14226,7 +14264,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="52" spans="1:67">
+    <row r="52" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>930</v>
       </c>
@@ -14411,7 +14449,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="53" spans="1:67">
+    <row r="53" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>940</v>
       </c>
@@ -14599,7 +14637,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="54" spans="1:67">
+    <row r="54" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>953</v>
       </c>
@@ -14778,7 +14816,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="55" spans="1:67">
+    <row r="55" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>968</v>
       </c>
@@ -14881,6 +14919,9 @@
       <c r="AJ55" t="s">
         <v>1431</v>
       </c>
+      <c r="AK55" t="s">
+        <v>879</v>
+      </c>
       <c r="AL55" t="s">
         <v>879</v>
       </c>
@@ -14969,7 +15010,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="56" spans="1:67">
+    <row r="56" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>979</v>
       </c>
@@ -15072,6 +15113,9 @@
       <c r="AJ56" t="s">
         <v>1433</v>
       </c>
+      <c r="AK56" t="s">
+        <v>882</v>
+      </c>
       <c r="AL56" t="s">
         <v>882</v>
       </c>
@@ -15160,7 +15204,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="57" spans="1:67">
+    <row r="57" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>990</v>
       </c>
@@ -15263,6 +15307,9 @@
       <c r="AJ57" t="s">
         <v>1435</v>
       </c>
+      <c r="AK57" t="s">
+        <v>885</v>
+      </c>
       <c r="AL57" t="s">
         <v>885</v>
       </c>
@@ -15351,7 +15398,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="58" spans="1:67">
+    <row r="58" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1001</v>
       </c>
@@ -15454,6 +15501,9 @@
       <c r="AJ58" t="s">
         <v>1437</v>
       </c>
+      <c r="AK58" t="s">
+        <v>888</v>
+      </c>
       <c r="AL58" t="s">
         <v>888</v>
       </c>
@@ -15542,7 +15592,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="59" spans="1:67">
+    <row r="59" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1012</v>
       </c>
@@ -15645,6 +15695,9 @@
       <c r="AJ59" t="s">
         <v>1439</v>
       </c>
+      <c r="AK59" t="s">
+        <v>891</v>
+      </c>
       <c r="AL59" t="s">
         <v>891</v>
       </c>
@@ -15733,7 +15786,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="60" spans="1:67">
+    <row r="60" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1023</v>
       </c>
@@ -15836,6 +15889,9 @@
       <c r="AJ60" t="s">
         <v>1030</v>
       </c>
+      <c r="AK60" t="s">
+        <v>894</v>
+      </c>
       <c r="AL60" t="s">
         <v>894</v>
       </c>
@@ -15924,7 +15980,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="61" spans="1:67">
+    <row r="61" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1036</v>
       </c>
@@ -16027,6 +16083,9 @@
       <c r="AJ61" t="s">
         <v>1044</v>
       </c>
+      <c r="AK61" t="s">
+        <v>771</v>
+      </c>
       <c r="AL61" t="s">
         <v>771</v>
       </c>
@@ -16115,7 +16174,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="62" spans="1:67">
+    <row r="62" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1052</v>
       </c>
@@ -16218,6 +16277,9 @@
       <c r="AJ62" t="s">
         <v>1060</v>
       </c>
+      <c r="AK62" t="s">
+        <v>899</v>
+      </c>
       <c r="AL62" t="s">
         <v>899</v>
       </c>
@@ -16306,7 +16368,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="63" spans="1:67">
+    <row r="63" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1068</v>
       </c>
@@ -16409,6 +16471,9 @@
       <c r="AJ63" t="s">
         <v>1076</v>
       </c>
+      <c r="AK63" t="s">
+        <v>802</v>
+      </c>
       <c r="AL63" t="s">
         <v>802</v>
       </c>
@@ -16497,7 +16562,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="64" spans="1:67">
+    <row r="64" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1084</v>
       </c>
@@ -16600,6 +16665,9 @@
       <c r="AJ64" t="s">
         <v>1092</v>
       </c>
+      <c r="AK64" t="s">
+        <v>905</v>
+      </c>
       <c r="AL64" t="s">
         <v>905</v>
       </c>
@@ -16688,7 +16756,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="65" spans="1:67">
+    <row r="65" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1100</v>
       </c>
@@ -16791,6 +16859,9 @@
       <c r="AJ65" t="s">
         <v>1108</v>
       </c>
+      <c r="AK65" t="s">
+        <v>844</v>
+      </c>
       <c r="AL65" t="s">
         <v>844</v>
       </c>
@@ -16879,7 +16950,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="66" spans="1:67">
+    <row r="66" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1116</v>
       </c>
@@ -16982,6 +17053,9 @@
       <c r="AJ66" t="s">
         <v>1373</v>
       </c>
+      <c r="AK66" t="s">
+        <v>790</v>
+      </c>
       <c r="AL66" t="s">
         <v>790</v>
       </c>
@@ -17070,7 +17144,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="67" spans="1:67">
+    <row r="67" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1130</v>
       </c>
@@ -17252,7 +17326,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:67">
+    <row r="68" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1136</v>
       </c>
@@ -17437,7 +17511,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="69" spans="1:67">
+    <row r="69" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1146</v>
       </c>
@@ -17625,7 +17699,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="70" spans="1:67">
+    <row r="70" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1151</v>
       </c>
@@ -17792,7 +17866,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="71" spans="1:67">
+    <row r="71" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1162</v>
       </c>
@@ -17959,7 +18033,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="72" spans="1:67">
+    <row r="72" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1165</v>
       </c>
@@ -18147,7 +18221,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="73" spans="1:67">
+    <row r="73" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1178</v>
       </c>
@@ -18326,7 +18400,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="74" spans="1:67">
+    <row r="74" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1193</v>
       </c>
@@ -18429,6 +18503,9 @@
       <c r="AJ74" t="s">
         <v>1381</v>
       </c>
+      <c r="AK74" t="s">
+        <v>401</v>
+      </c>
       <c r="AL74" t="s">
         <v>401</v>
       </c>
@@ -18517,7 +18594,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="75" spans="1:67">
+    <row r="75" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1204</v>
       </c>
@@ -18620,6 +18697,9 @@
       <c r="AJ75" t="s">
         <v>1391</v>
       </c>
+      <c r="AK75" t="s">
+        <v>423</v>
+      </c>
       <c r="AL75" t="s">
         <v>423</v>
       </c>
@@ -18708,7 +18788,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="76" spans="1:67">
+    <row r="76" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1215</v>
       </c>
@@ -18811,6 +18891,9 @@
       <c r="AJ76" t="s">
         <v>1401</v>
       </c>
+      <c r="AK76" t="s">
+        <v>445</v>
+      </c>
       <c r="AL76" t="s">
         <v>445</v>
       </c>
@@ -18899,7 +18982,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="77" spans="1:67">
+    <row r="77" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1226</v>
       </c>
@@ -19002,6 +19085,9 @@
       <c r="AJ77" t="s">
         <v>1421</v>
       </c>
+      <c r="AK77" t="s">
+        <v>467</v>
+      </c>
       <c r="AL77" t="s">
         <v>489</v>
       </c>
@@ -19090,7 +19176,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="78" spans="1:67">
+    <row r="78" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1237</v>
       </c>
@@ -19193,6 +19279,9 @@
       <c r="AJ78" t="s">
         <v>1411</v>
       </c>
+      <c r="AK78" t="s">
+        <v>489</v>
+      </c>
       <c r="AL78" t="s">
         <v>467</v>
       </c>
@@ -19281,7 +19370,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="79" spans="1:67">
+    <row r="79" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1237</v>
       </c>
@@ -19384,6 +19473,9 @@
       <c r="AJ79" t="s">
         <v>515</v>
       </c>
+      <c r="AK79" t="s">
+        <v>204</v>
+      </c>
       <c r="AL79" t="s">
         <v>204</v>
       </c>
@@ -19472,7 +19564,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:67">
+    <row r="80" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1251</v>
       </c>
@@ -19575,6 +19667,9 @@
       <c r="AJ80" t="s">
         <v>550</v>
       </c>
+      <c r="AK80" t="s">
+        <v>277</v>
+      </c>
       <c r="AL80" t="s">
         <v>277</v>
       </c>
@@ -19663,7 +19758,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="81" spans="1:67">
+    <row r="81" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1265</v>
       </c>
@@ -19766,6 +19861,9 @@
       <c r="AJ81" t="s">
         <v>586</v>
       </c>
+      <c r="AK81" t="s">
+        <v>587</v>
+      </c>
       <c r="AL81" t="s">
         <v>587</v>
       </c>
@@ -19854,7 +19952,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="82" spans="1:67">
+    <row r="82" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1279</v>
       </c>
@@ -19957,6 +20055,9 @@
       <c r="AJ82" t="s">
         <v>623</v>
       </c>
+      <c r="AK82" t="s">
+        <v>308</v>
+      </c>
       <c r="AL82" t="s">
         <v>308</v>
       </c>
@@ -20045,7 +20146,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="83" spans="1:67">
+    <row r="83" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1284</v>
       </c>
@@ -20148,6 +20249,9 @@
       <c r="AJ83" t="s">
         <v>659</v>
       </c>
+      <c r="AK83" t="s">
+        <v>660</v>
+      </c>
       <c r="AL83" t="s">
         <v>660</v>
       </c>
@@ -20236,7 +20340,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="84" spans="1:67">
+    <row r="84" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1298</v>
       </c>
@@ -20339,6 +20443,9 @@
       <c r="AJ84" t="s">
         <v>697</v>
       </c>
+      <c r="AK84" t="s">
+        <v>350</v>
+      </c>
       <c r="AL84" t="s">
         <v>350</v>
       </c>
@@ -20427,7 +20534,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="85" spans="1:67">
+    <row r="85" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1312</v>
       </c>
@@ -20530,6 +20637,9 @@
       <c r="AJ85" t="s">
         <v>1368</v>
       </c>
+      <c r="AK85" t="s">
+        <v>296</v>
+      </c>
       <c r="AL85" t="s">
         <v>296</v>
       </c>
@@ -20618,7 +20728,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="86" spans="1:67">
+    <row r="86" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1325</v>
       </c>
@@ -20647,7 +20757,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="87" spans="1:67">
+    <row r="87" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1328</v>
       </c>
